--- a/clientes_spartamGym.xlsx
+++ b/clientes_spartamGym.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Pictures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Documents\NetBeansProjects\SpartamGym_Reserva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3ED242-F2B9-400F-97DC-46F4BA4D0F17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D8DF63-E532-4245-885A-1D4AC443BEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1890" windowWidth="15375" windowHeight="7875" xr2:uid="{35DB9D2A-B29A-4623-9499-59B9B8B51C17}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{35DB9D2A-B29A-4623-9499-59B9B8B51C17}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -66,18 +66,12 @@
     <t>martha@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Mauricio </t>
-  </si>
-  <si>
     <t>Rozo</t>
   </si>
   <si>
     <t>Santa Isabel</t>
   </si>
   <si>
-    <t>mauricio@gmail.com</t>
-  </si>
-  <si>
     <t>Targeta de Identidad</t>
   </si>
   <si>
@@ -109,6 +103,12 @@
   </si>
   <si>
     <t>Diego Mauricio</t>
+  </si>
+  <si>
+    <t>alonso</t>
+  </si>
+  <si>
+    <t>alonso@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,25 +536,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>1333223</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
       </c>
       <c r="F3">
         <v>3123540436</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -562,25 +562,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>10002002</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>2323</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -594,19 +594,19 @@
         <v>1006128772</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
       </c>
       <c r="F5">
         <v>3222493912</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -620,19 +620,19 @@
         <v>2323434</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6">
         <v>3123540436</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/clientes_spartamGym.xlsx
+++ b/clientes_spartamGym.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Documents\NetBeansProjects\SpartamGym_Reserva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D8DF63-E532-4245-885A-1D4AC443BEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAEF935-F70B-46F8-A215-F8C6C811BFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{35DB9D2A-B29A-4623-9499-59B9B8B51C17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{35DB9D2A-B29A-4623-9499-59B9B8B51C17}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Tipo de documento</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>alonso@gmail.com</t>
+  </si>
+  <si>
+    <t>mpsantana1@misena.edu.co</t>
+  </si>
+  <si>
+    <t>roa</t>
+  </si>
+  <si>
+    <t>paula</t>
+  </si>
+  <si>
+    <t>cedula</t>
   </si>
 </sst>
 </file>
@@ -471,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932D6882-8687-4314-B4D5-1476171741D7}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,25 +522,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B2">
-        <v>1234423</v>
+        <v>34342</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F2">
-        <v>32234323</v>
+        <v>3333</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -536,25 +548,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>1333223</v>
+        <v>1234423</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>3123540436</v>
+        <v>32234323</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -562,25 +574,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>10002002</v>
+        <v>1333223</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>2323</v>
+        <v>3123540436</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -588,25 +600,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>1006128772</v>
+        <v>10002002</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>3222493912</v>
+        <v>2323</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -617,33 +629,90 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>2323434</v>
+        <v>1006128772</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
       <c r="F6">
+        <v>3222493912</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>2323434</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7">
         <v>3123540436</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>34342</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8">
+        <v>3333</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{02D7DD08-DC4C-40DE-8D08-F53D553A1264}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{6A67663B-D1B8-4B47-86CE-1167D233B629}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{FD388A36-B356-4550-B5E3-EA8B75D1888B}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{A75EEE71-C56A-48D4-BD85-A93CEAE07B0D}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{D1B1CF29-4C24-4472-9B3A-8D425049EFB5}"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{02D7DD08-DC4C-40DE-8D08-F53D553A1264}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{6A67663B-D1B8-4B47-86CE-1167D233B629}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{FD388A36-B356-4550-B5E3-EA8B75D1888B}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{A75EEE71-C56A-48D4-BD85-A93CEAE07B0D}"/>
+    <hyperlink ref="G7" r:id="rId5" xr:uid="{D1B1CF29-4C24-4472-9B3A-8D425049EFB5}"/>
+    <hyperlink ref="G8" r:id="rId6" xr:uid="{47D84E9E-9C15-4AB5-8E30-50F1B208FF37}"/>
+    <hyperlink ref="G2" r:id="rId7" xr:uid="{21D03B15-BC6F-4DD6-B94D-B1800545C2BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>